--- a/biology/Histoire de la zoologie et de la botanique/Laurent_Yeatman/Laurent_Yeatman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Laurent_Yeatman/Laurent_Yeatman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent Yeatman est un ornithologue français dont l'œuvre majeure est le premier Atlas des oiseaux nicheurs de France publié en 1976 par la Société ornithologique de France et le ministère de la Qualité de la vie et de l'environnement.
 Il épouse Janine Salles (1913-1999), arrière-petite-fille de Gustave Eiffel. Ils auront quatre enfants : Jérôme Yeatman (né en 1937), Dosithée Yeatman (née en 1938), Patrice Yeatman (né en 1942) et Sylvain Yeatman-Eiffel (né en 1943).
